--- a/Lab A5 - FreeRTOS/Lat_Lon_Calculator.xlsx
+++ b/Lab A5 - FreeRTOS/Lat_Lon_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reese_ford1\Documents\GitHub\Embedded-Lab\Lab A5 - FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F6349-C5CA-437F-9064-64B192525B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB6858-2AAA-427C-8D55-257E2C5D9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="0" windowWidth="21060" windowHeight="15585" xr2:uid="{31B604E1-28BF-47CE-A81C-45A86E9B1E67}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13335" windowHeight="15585" xr2:uid="{31B604E1-28BF-47CE-A81C-45A86E9B1E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B501775-8C8B-427B-A391-2F66E7AC4D43}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
